--- a/Olah Data Pelanggan/Bulan 4 - 7 - 2022/EDI SAYUNG 47.xlsx
+++ b/Olah Data Pelanggan/Bulan 4 - 7 - 2022/EDI SAYUNG 47.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="0" yWindow="60" windowWidth="15975" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15975" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="EDI SAY 47" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,6 +451,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +759,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A2:D11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +797,7 @@
       <c r="D2" s="3">
         <v>4825000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -811,7 +814,7 @@
       <c r="D3" s="3">
         <v>2314206</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -828,7 +831,7 @@
       <c r="D4" s="3">
         <v>1702800</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
     </row>
@@ -845,7 +848,7 @@
       <c r="D5" s="3">
         <v>1643000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -862,7 +865,7 @@
       <c r="D6" s="3">
         <v>1541165</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
     </row>
@@ -879,7 +882,7 @@
       <c r="D7" s="3">
         <v>1269255</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
     </row>
@@ -896,7 +899,7 @@
       <c r="D8" s="3">
         <v>1080275</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
     </row>
@@ -913,7 +916,7 @@
       <c r="D9" s="3">
         <v>883500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
     </row>
@@ -930,7 +933,7 @@
       <c r="D10" s="3">
         <v>837060</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -947,7 +950,7 @@
       <c r="D11" s="3">
         <v>735165</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
     </row>
@@ -964,7 +967,7 @@
       <c r="D12" s="3">
         <v>700500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>11</v>
       </c>
     </row>
@@ -981,7 +984,7 @@
       <c r="D13" s="3">
         <v>674250</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>12</v>
       </c>
     </row>
@@ -998,7 +1001,7 @@
       <c r="D14" s="3">
         <v>660450</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>13</v>
       </c>
     </row>
@@ -1015,7 +1018,7 @@
       <c r="D15" s="3">
         <v>555225</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1032,7 +1035,7 @@
       <c r="D16" s="3">
         <v>495225</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1049,7 +1052,7 @@
       <c r="D17" s="3">
         <v>435252</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1066,7 +1069,7 @@
       <c r="D18" s="3">
         <v>433125</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>17</v>
       </c>
     </row>
@@ -1083,7 +1086,7 @@
       <c r="D19" s="3">
         <v>432450</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>18</v>
       </c>
     </row>
@@ -1100,7 +1103,7 @@
       <c r="D20" s="3">
         <v>426282</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>19</v>
       </c>
     </row>
@@ -1117,7 +1120,7 @@
       <c r="D21" s="3">
         <v>396600</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>20</v>
       </c>
     </row>
@@ -1134,7 +1137,7 @@
       <c r="D22" s="3">
         <v>391760</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>21</v>
       </c>
     </row>
@@ -1151,7 +1154,7 @@
       <c r="D23" s="3">
         <v>391437</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>22</v>
       </c>
     </row>
@@ -1167,6 +1170,9 @@
       </c>
       <c r="D24" s="3">
         <v>368830</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
